--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E18C5C-9625-4678-87F6-8BECEFEB8840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC238340-AB80-4D51-B70F-D5F11B571CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27165" yWindow="2085" windowWidth="25965" windowHeight="16125" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38720" yWindow="9270" windowWidth="25050" windowHeight="11480" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="27" r:id="rId1"/>
@@ -217,6 +217,7 @@
     <author>tc={C09F6605-4B5E-4E4F-877F-AF898C62BEE7}</author>
     <author>tc={6446E119-F193-1142-9DE3-B2093A985B4F}</author>
     <author>tc={C9F253B3-164F-457B-A9EC-F6A22E190BBE}</author>
+    <author>tc={C1B849B5-9C8D-42CA-8F86-D113DDF519A0}</author>
     <author>tc={EA475891-7DAB-5B42-A37D-6815334EAFF1}</author>
     <author>tc={E7A7648A-AC02-E948-A141-F239D41E7779}</author>
     <author>tc={CF8F0CD1-8A08-4519-892D-513C9145E9EF}</author>
@@ -1194,7 +1195,8 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    5/6/25 consensus: 14320</t>
+    5/6/25 consensus: 14320
+8/4/25 consensus: 14700</t>
       </text>
     </comment>
     <comment ref="DU71" authorId="49" shapeId="0" xr:uid="{E043D6AB-AC34-4707-B240-064C416613ED}">
@@ -1202,7 +1204,8 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    5/6/25 consensus: 15370m</t>
+    5/6/25 consensus: 15370m
+8/4/25 consensus: 15540m</t>
       </text>
     </comment>
     <comment ref="DV71" authorId="50" shapeId="0" xr:uid="{F1C29320-A832-47FE-9610-B0BA8742EEFB}">
@@ -1210,7 +1213,8 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    5/6/25 consensus: 17080m</t>
+    5/6/25 consensus: 17080m
+8/4/25 consensus: 17240m</t>
       </text>
     </comment>
     <comment ref="ES71" authorId="21" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
@@ -1676,6 +1680,14 @@
 4.06 excluding IPR&amp;D</t>
       </text>
     </comment>
+    <comment ref="DT82" authorId="62" shapeId="0" xr:uid="{C1B849B5-9C8D-42CA-8F86-D113DDF519A0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    8/4/25: 5.60</t>
+      </text>
+    </comment>
     <comment ref="ES82" authorId="21" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002C000000}">
       <text>
         <r>
@@ -1820,7 +1832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FK82" authorId="62" shapeId="0" xr:uid="{EA475891-7DAB-5B42-A37D-6815334EAFF1}">
+    <comment ref="FK82" authorId="63" shapeId="0" xr:uid="{EA475891-7DAB-5B42-A37D-6815334EAFF1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1830,7 +1842,7 @@
 Q324 guidance: 13.02-13.52 non-GAAP</t>
       </text>
     </comment>
-    <comment ref="DN85" authorId="63" shapeId="0" xr:uid="{E7A7648A-AC02-E948-A141-F239D41E7779}">
+    <comment ref="DN85" authorId="64" shapeId="0" xr:uid="{E7A7648A-AC02-E948-A141-F239D41E7779}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1840,7 +1852,7 @@
 1% FX</t>
       </text>
     </comment>
-    <comment ref="DP85" authorId="64" shapeId="0" xr:uid="{CF8F0CD1-8A08-4519-892D-513C9145E9EF}">
+    <comment ref="DP85" authorId="65" shapeId="0" xr:uid="{CF8F0CD1-8A08-4519-892D-513C9145E9EF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1874,7 +1886,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DM134" authorId="65" shapeId="0" xr:uid="{F7EEE25E-A1A6-4B35-B1EF-801B6A1015FB}">
+    <comment ref="DM134" authorId="66" shapeId="0" xr:uid="{F7EEE25E-A1A6-4B35-B1EF-801B6A1015FB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1914,7 +1926,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="1270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="1274">
   <si>
     <t>Name</t>
   </si>
@@ -5724,6 +5736,18 @@
   </si>
   <si>
     <t>oral agonist</t>
+  </si>
+  <si>
+    <t>Total $</t>
+  </si>
+  <si>
+    <t>q/q</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>Q Total $</t>
   </si>
 </sst>
 </file>
@@ -5735,7 +5759,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5853,6 +5877,12 @@
       <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -6011,7 +6041,7 @@
     </xf>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6298,6 +6328,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -7107,13 +7147,16 @@
     <text>$65m one-time milestone for Ebglyss launch.</text>
   </threadedComment>
   <threadedComment ref="DT71" dT="2025-05-06T13:01:02.35" personId="{13399233-BA81-4949-9BE8-57EDDD85014C}" id="{B67FF5F6-4925-4D70-814B-74FF0F7F0FA5}">
-    <text>5/6/25 consensus: 14320</text>
+    <text>5/6/25 consensus: 14320
+8/4/25 consensus: 14700</text>
   </threadedComment>
   <threadedComment ref="DU71" dT="2025-05-06T13:01:18.51" personId="{13399233-BA81-4949-9BE8-57EDDD85014C}" id="{E043D6AB-AC34-4707-B240-064C416613ED}">
-    <text>5/6/25 consensus: 15370m</text>
+    <text>5/6/25 consensus: 15370m
+8/4/25 consensus: 15540m</text>
   </threadedComment>
   <threadedComment ref="DV71" dT="2025-05-06T13:01:35.43" personId="{13399233-BA81-4949-9BE8-57EDDD85014C}" id="{F1C29320-A832-47FE-9610-B0BA8742EEFB}">
-    <text>5/6/25 consensus: 17080m</text>
+    <text>5/6/25 consensus: 17080m
+8/4/25 consensus: 17240m</text>
   </threadedComment>
   <threadedComment ref="FJ71" dT="2024-02-27T00:16:20.93" personId="{13399233-BA81-4949-9BE8-57EDDD85014C}" id="{44F04AEB-60ED-E244-B275-73D80CAB84D6}">
     <text>34124m actual</text>
@@ -7144,6 +7187,9 @@
   <threadedComment ref="DP82" dT="2024-10-26T15:24:21.11" personId="{13399233-BA81-4949-9BE8-57EDDD85014C}" id="{C9F253B3-164F-457B-A9EC-F6A22E190BBE}">
     <text>3.92 non-GAAP
 4.06 excluding IPR&amp;D</text>
+  </threadedComment>
+  <threadedComment ref="DT82" dT="2025-08-04T14:25:23.98" personId="{13399233-BA81-4949-9BE8-57EDDD85014C}" id="{C1B849B5-9C8D-42CA-8F86-D113DDF519A0}">
+    <text>8/4/25: 5.60</text>
   </threadedComment>
   <threadedComment ref="FK82" dT="2024-02-22T18:16:50.67" personId="{13399233-BA81-4949-9BE8-57EDDD85014C}" id="{EA475891-7DAB-5B42-A37D-6815334EAFF1}">
     <text>Q423 guidance: 12.20-12.70
@@ -14376,8 +14422,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -14422,7 +14468,7 @@
         <v>172</v>
       </c>
       <c r="J2" s="31">
-        <v>721</v>
+        <v>761</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -14474,7 +14520,7 @@
       </c>
       <c r="J4" s="18">
         <f>J2*J3</f>
-        <v>649332.6</v>
+        <v>685356.6</v>
       </c>
       <c r="K4" s="32"/>
     </row>
@@ -14554,7 +14600,7 @@
       </c>
       <c r="J7" s="18">
         <f>J4-J5+J6</f>
-        <v>681405.6</v>
+        <v>717429.6</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -16080,11 +16126,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:IQ161"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="DM99" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="DN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DS100" sqref="DS100"/>
+      <selection pane="bottomRight" activeCell="DT5" sqref="DT5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -16950,15 +16996,15 @@
       </c>
       <c r="DT3" s="52">
         <f t="shared" si="4"/>
-        <v>7948.9</v>
+        <v>8148.9</v>
       </c>
       <c r="DU3" s="52">
         <f t="shared" si="4"/>
-        <v>8648.9</v>
+        <v>8848.9</v>
       </c>
       <c r="DV3" s="52">
         <f t="shared" si="4"/>
-        <v>9348.9</v>
+        <v>9548.9</v>
       </c>
       <c r="DX3" s="102"/>
       <c r="DY3" s="102"/>
@@ -17035,47 +17081,47 @@
       </c>
       <c r="FL3" s="56">
         <f>SUM(FL5:FL9)</f>
-        <v>33195.599999999999</v>
+        <v>33795.599999999999</v>
       </c>
       <c r="FM3" s="56">
         <f t="shared" ref="FM3:FV3" si="6">SUM(FM5:FM9)</f>
-        <v>44705.36</v>
+        <v>45545.36</v>
       </c>
       <c r="FN3" s="56">
         <f t="shared" si="6"/>
-        <v>62072.719999999987</v>
+        <v>63248.719999999987</v>
       </c>
       <c r="FO3" s="56">
         <f t="shared" si="6"/>
-        <v>78619.379199999996</v>
+        <v>80030.579199999993</v>
       </c>
       <c r="FP3" s="56">
         <f t="shared" si="6"/>
-        <v>90150.58623999999</v>
+        <v>91702.906239999997</v>
       </c>
       <c r="FQ3" s="56">
         <f t="shared" si="6"/>
-        <v>101951.06015999999</v>
+        <v>103658.61216</v>
       </c>
       <c r="FR3" s="56">
         <f t="shared" si="6"/>
-        <v>104120.182048</v>
+        <v>105827.73404800001</v>
       </c>
       <c r="FS3" s="56">
         <f t="shared" si="6"/>
-        <v>107175.98131392</v>
+        <v>108900.60883392001</v>
       </c>
       <c r="FT3" s="56">
         <f t="shared" si="6"/>
-        <v>111087.71582137601</v>
+        <v>112846.49438137602</v>
       </c>
       <c r="FU3" s="56">
         <f t="shared" si="6"/>
-        <v>115834.99687881602</v>
+        <v>117645.17275401601</v>
       </c>
       <c r="FV3" s="56">
         <f t="shared" si="6"/>
-        <v>114607.18448394563</v>
+        <v>116486.34545994563</v>
       </c>
     </row>
     <row r="4" spans="1:178" s="102" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -17710,16 +17756,16 @@
         <v>3841.8</v>
       </c>
       <c r="DT6" s="52">
-        <f>+DS6+500</f>
-        <v>4341.8</v>
+        <f>+DS6+600</f>
+        <v>4441.8</v>
       </c>
       <c r="DU6" s="52">
         <f>+DT6+500</f>
-        <v>4841.8</v>
+        <v>4941.8</v>
       </c>
       <c r="DV6" s="52">
         <f>+DU6+500</f>
-        <v>5341.8</v>
+        <v>5441.8</v>
       </c>
       <c r="DX6" s="98"/>
       <c r="DY6" s="98"/>
@@ -17772,47 +17818,47 @@
       </c>
       <c r="FL6" s="49">
         <f>SUM(DS6:DV6)</f>
-        <v>18367.2</v>
+        <v>18667.2</v>
       </c>
       <c r="FM6" s="49">
         <f t="shared" ref="FM6:FN7" si="11">FL6*1.4</f>
-        <v>25714.079999999998</v>
+        <v>26134.079999999998</v>
       </c>
       <c r="FN6" s="49">
         <f t="shared" si="11"/>
-        <v>35999.711999999992</v>
+        <v>36587.711999999992</v>
       </c>
       <c r="FO6" s="49">
         <f>FN6*1.2</f>
-        <v>43199.654399999992</v>
+        <v>43905.254399999991</v>
       </c>
       <c r="FP6" s="49">
         <f t="shared" ref="FP6:FP7" si="12">FO6*1.1</f>
-        <v>47519.619839999992</v>
+        <v>48295.779839999996</v>
       </c>
       <c r="FQ6" s="49">
         <f>+FP6*1.1</f>
-        <v>52271.581823999994</v>
+        <v>53125.357823999999</v>
       </c>
       <c r="FR6" s="49">
         <f>+FQ6*0.9</f>
-        <v>47044.423641599999</v>
+        <v>47812.822041599997</v>
       </c>
       <c r="FS6" s="49">
         <f>+FR6*0.9</f>
-        <v>42339.981277439998</v>
+        <v>43031.539837439996</v>
       </c>
       <c r="FT6" s="49">
         <f>+FS6*0.9</f>
-        <v>38105.983149695996</v>
+        <v>38728.385853695996</v>
       </c>
       <c r="FU6" s="49">
         <f>+FT6*0.9</f>
-        <v>34295.384834726399</v>
+        <v>34855.547268326394</v>
       </c>
       <c r="FV6" s="49">
         <f>+FU6*0.9</f>
-        <v>30865.84635125376</v>
+        <v>31369.992541493757</v>
       </c>
     </row>
     <row r="7" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.25">
@@ -17954,16 +18000,16 @@
         <v>2311.9</v>
       </c>
       <c r="DT7" s="52">
-        <f>DS7+300</f>
-        <v>2611.9</v>
+        <f>DS7+400</f>
+        <v>2711.9</v>
       </c>
       <c r="DU7" s="52">
         <f>DT7+300</f>
-        <v>2911.9</v>
+        <v>3011.9</v>
       </c>
       <c r="DV7" s="52">
         <f>DU7+300</f>
-        <v>3211.9</v>
+        <v>3311.9</v>
       </c>
       <c r="DX7" s="98"/>
       <c r="DY7" s="98"/>
@@ -18013,47 +18059,47 @@
       </c>
       <c r="FL7" s="49">
         <f>SUM(DS7:DV7)</f>
-        <v>11047.6</v>
+        <v>11347.6</v>
       </c>
       <c r="FM7" s="49">
         <f t="shared" si="11"/>
-        <v>15466.64</v>
+        <v>15886.64</v>
       </c>
       <c r="FN7" s="49">
         <f t="shared" si="11"/>
-        <v>21653.295999999998</v>
+        <v>22241.295999999998</v>
       </c>
       <c r="FO7" s="49">
         <f>FN7*1.2</f>
-        <v>25983.955199999997</v>
+        <v>26689.555199999999</v>
       </c>
       <c r="FP7" s="49">
         <f t="shared" si="12"/>
-        <v>28582.350719999999</v>
+        <v>29358.510720000002</v>
       </c>
       <c r="FQ7" s="49">
         <f>+FP7*1.1</f>
-        <v>31440.585792000002</v>
+        <v>32294.361792000003</v>
       </c>
       <c r="FR7" s="49">
         <f t="shared" ref="FR7:FV7" si="13">+FQ7*1.1</f>
-        <v>34584.644371200004</v>
+        <v>35523.797971200009</v>
       </c>
       <c r="FS7" s="49">
         <f t="shared" si="13"/>
-        <v>38043.108808320008</v>
+        <v>39076.177768320013</v>
       </c>
       <c r="FT7" s="49">
         <f t="shared" si="13"/>
-        <v>41847.419689152011</v>
+        <v>42983.795545152017</v>
       </c>
       <c r="FU7" s="49">
         <f t="shared" si="13"/>
-        <v>46032.16165806722</v>
+        <v>47282.17509966722</v>
       </c>
       <c r="FV7" s="49">
         <f t="shared" si="13"/>
-        <v>50635.377823873947</v>
+        <v>52010.392609633949</v>
       </c>
     </row>
     <row r="8" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.25">
@@ -18181,8 +18227,8 @@
       <c r="DP8" s="52"/>
       <c r="DQ8" s="52"/>
       <c r="DR8" s="52"/>
-      <c r="DS8" s="52"/>
-      <c r="DT8" s="52"/>
+      <c r="DS8" s="66"/>
+      <c r="DT8" s="66"/>
       <c r="DU8" s="52"/>
       <c r="DV8" s="52"/>
       <c r="DX8" s="98"/>
@@ -36338,15 +36384,15 @@
       </c>
       <c r="DT71" s="56">
         <f>SUM(DT5:DT46)</f>
-        <v>14350.630000000003</v>
+        <v>14550.630000000003</v>
       </c>
       <c r="DU71" s="56">
         <f>SUM(DU5:DU46)</f>
-        <v>15263.440000000006</v>
+        <v>15463.440000000006</v>
       </c>
       <c r="DV71" s="56">
         <f>SUM(DV5:DV46)</f>
-        <v>16779.501000000004</v>
+        <v>16979.501000000004</v>
       </c>
       <c r="DW71" s="57"/>
       <c r="DX71" s="57">
@@ -36480,47 +36526,47 @@
       </c>
       <c r="FL71" s="56">
         <f>SUM(FL5:FL70)</f>
-        <v>59121.771000000015</v>
+        <v>59721.771000000015</v>
       </c>
       <c r="FM71" s="56">
         <f t="shared" si="118"/>
-        <v>72444.121110000022</v>
+        <v>73284.121110000007</v>
       </c>
       <c r="FN71" s="56">
         <f t="shared" si="118"/>
-        <v>90899.134501100038</v>
+        <v>92075.134501100038</v>
       </c>
       <c r="FO71" s="56">
         <f t="shared" si="118"/>
-        <v>108552.07179411099</v>
+        <v>109963.27179411097</v>
       </c>
       <c r="FP71" s="56">
         <f t="shared" si="118"/>
-        <v>121429.08591635212</v>
+        <v>122981.40591635213</v>
       </c>
       <c r="FQ71" s="56">
         <f t="shared" si="118"/>
-        <v>120068.84365375708</v>
+        <v>121776.39565375709</v>
       </c>
       <c r="FR71" s="56">
         <f t="shared" si="118"/>
-        <v>121197.30062722854</v>
+        <v>122904.85262722855</v>
       </c>
       <c r="FS71" s="56">
         <f t="shared" si="118"/>
-        <v>124495.01082417414</v>
+        <v>126219.63834417415</v>
       </c>
       <c r="FT71" s="56">
         <f t="shared" si="118"/>
-        <v>128847.80611174495</v>
+        <v>130606.58467174496</v>
       </c>
       <c r="FU71" s="56">
         <f t="shared" si="118"/>
-        <v>134127.97412164914</v>
+        <v>135938.14999684913</v>
       </c>
       <c r="FV71" s="56">
         <f t="shared" si="118"/>
-        <v>131506.57743378668</v>
+        <v>133385.73840978669</v>
       </c>
     </row>
     <row r="72" spans="1:178" x14ac:dyDescent="0.25">
@@ -36824,15 +36870,15 @@
       </c>
       <c r="DT72" s="51">
         <f>+DT71-DT73</f>
-        <v>2726.6196999999993</v>
+        <v>2764.6196999999993</v>
       </c>
       <c r="DU72" s="51">
         <f>+DU71-DU73</f>
-        <v>2900.0536000000011</v>
+        <v>2938.0536000000011</v>
       </c>
       <c r="DV72" s="51">
         <f>+DV71-DV73</f>
-        <v>3188.1051900000002</v>
+        <v>3226.1051900000002</v>
       </c>
       <c r="DX72" s="49"/>
       <c r="DY72" s="49"/>
@@ -36942,47 +36988,47 @@
       </c>
       <c r="FL72" s="49">
         <f t="shared" ref="FL72:FQ72" si="123">FL71-FL73</f>
-        <v>12415.571909999999</v>
+        <v>12541.571909999999</v>
       </c>
       <c r="FM72" s="49">
         <f t="shared" si="123"/>
-        <v>15213.265433100001</v>
+        <v>15389.665433099995</v>
       </c>
       <c r="FN72" s="49">
         <f t="shared" si="123"/>
-        <v>19088.818245230999</v>
+        <v>19335.778245231006</v>
       </c>
       <c r="FO72" s="49">
         <f t="shared" si="123"/>
-        <v>22795.9350767633</v>
+        <v>23092.287076763299</v>
       </c>
       <c r="FP72" s="49">
         <f t="shared" si="123"/>
-        <v>25500.108042433945</v>
+        <v>25826.095242433948</v>
       </c>
       <c r="FQ72" s="49">
         <f t="shared" si="123"/>
-        <v>18010.32654806356</v>
+        <v>18266.459348063567</v>
       </c>
       <c r="FR72" s="49">
         <f t="shared" ref="FR72:FU72" si="124">FR71-FR73</f>
-        <v>18179.595094084289</v>
+        <v>18435.727894084281</v>
       </c>
       <c r="FS72" s="49">
         <f t="shared" si="124"/>
-        <v>18674.251623626129</v>
+        <v>18932.945751626132</v>
       </c>
       <c r="FT72" s="49">
         <f t="shared" si="124"/>
-        <v>19327.170916761752</v>
+        <v>19590.987700761747</v>
       </c>
       <c r="FU72" s="49">
         <f t="shared" si="124"/>
-        <v>20119.196118247375</v>
+        <v>20390.722499527372</v>
       </c>
       <c r="FV72" s="49">
         <f>FV71-FV73</f>
-        <v>19725.986615068003</v>
+        <v>20007.860761468008</v>
       </c>
     </row>
     <row r="73" spans="1:178" x14ac:dyDescent="0.25">
@@ -37359,15 +37405,15 @@
       </c>
       <c r="DT73" s="51">
         <f>+DT71*0.81</f>
-        <v>11624.010300000004</v>
+        <v>11786.010300000004</v>
       </c>
       <c r="DU73" s="51">
         <f>+DU71*0.81</f>
-        <v>12363.386400000005</v>
+        <v>12525.386400000005</v>
       </c>
       <c r="DV73" s="51">
         <f>+DV71*0.81</f>
-        <v>13591.395810000004</v>
+        <v>13753.395810000004</v>
       </c>
       <c r="DX73" s="49"/>
       <c r="DY73" s="49"/>
@@ -37489,47 +37535,47 @@
       </c>
       <c r="FL73" s="51">
         <f t="shared" ref="FL73:FO73" si="146">FL71*0.79</f>
-        <v>46706.199090000016</v>
+        <v>47180.199090000016</v>
       </c>
       <c r="FM73" s="51">
         <f t="shared" si="146"/>
-        <v>57230.855676900021</v>
+        <v>57894.455676900012</v>
       </c>
       <c r="FN73" s="51">
         <f t="shared" si="146"/>
-        <v>71810.316255869038</v>
+        <v>72739.356255869032</v>
       </c>
       <c r="FO73" s="51">
         <f t="shared" si="146"/>
-        <v>85756.13671734769</v>
+        <v>86870.984717347674</v>
       </c>
       <c r="FP73" s="51">
         <f>FP71*0.79</f>
-        <v>95928.977873918178</v>
+        <v>97155.310673918182</v>
       </c>
       <c r="FQ73" s="51">
         <f>FQ71*0.85</f>
-        <v>102058.51710569352</v>
+        <v>103509.93630569353</v>
       </c>
       <c r="FR73" s="51">
         <f t="shared" ref="FR73:FU73" si="147">FR71*0.85</f>
-        <v>103017.70553314425</v>
+        <v>104469.12473314427</v>
       </c>
       <c r="FS73" s="51">
         <f t="shared" si="147"/>
-        <v>105820.75920054801</v>
+        <v>107286.69259254802</v>
       </c>
       <c r="FT73" s="51">
         <f t="shared" si="147"/>
-        <v>109520.6351949832</v>
+        <v>111015.59697098321</v>
       </c>
       <c r="FU73" s="51">
         <f t="shared" si="147"/>
-        <v>114008.77800340176</v>
+        <v>115547.42749732175</v>
       </c>
       <c r="FV73" s="51">
         <f>FV71*0.85</f>
-        <v>111780.59081871867</v>
+        <v>113377.87764831868</v>
       </c>
     </row>
     <row r="74" spans="1:178" x14ac:dyDescent="0.25">
@@ -37944,47 +37990,47 @@
       </c>
       <c r="FL74" s="49">
         <f t="shared" ref="FL74:FP74" si="155">+FL71*0.25</f>
-        <v>14780.442750000004</v>
+        <v>14930.442750000004</v>
       </c>
       <c r="FM74" s="49">
         <f t="shared" si="155"/>
-        <v>18111.030277500005</v>
+        <v>18321.030277500002</v>
       </c>
       <c r="FN74" s="49">
         <f t="shared" si="155"/>
-        <v>22724.783625275009</v>
+        <v>23018.783625275009</v>
       </c>
       <c r="FO74" s="49">
         <f t="shared" si="155"/>
-        <v>27138.017948527748</v>
+        <v>27490.817948527743</v>
       </c>
       <c r="FP74" s="49">
         <f t="shared" si="155"/>
-        <v>30357.271479088031</v>
+        <v>30745.351479088033</v>
       </c>
       <c r="FQ74" s="49">
         <f>+FQ71*0.25</f>
-        <v>30017.21091343927</v>
+        <v>30444.098913439273</v>
       </c>
       <c r="FR74" s="49">
         <f t="shared" ref="FR74:FU74" si="156">+FR71*0.25</f>
-        <v>30299.325156807135</v>
+        <v>30726.213156807138</v>
       </c>
       <c r="FS74" s="49">
         <f t="shared" si="156"/>
-        <v>31123.752706043535</v>
+        <v>31554.909586043537</v>
       </c>
       <c r="FT74" s="49">
         <f>+FT71*0.25</f>
-        <v>32211.951527936239</v>
+        <v>32651.64616793624</v>
       </c>
       <c r="FU74" s="49">
         <f t="shared" si="156"/>
-        <v>33531.993530412285</v>
+        <v>33984.537499212282</v>
       </c>
       <c r="FV74" s="49">
         <f>+FV71*0.25</f>
-        <v>32876.644358446669</v>
+        <v>33346.434602446672</v>
       </c>
     </row>
     <row r="75" spans="1:178" x14ac:dyDescent="0.25">
@@ -38866,47 +38912,47 @@
       </c>
       <c r="FL76" s="51">
         <f t="shared" ref="FL76" si="180">FL75+FL74</f>
-        <v>24878.897450000004</v>
+        <v>25028.897450000004</v>
       </c>
       <c r="FM76" s="51">
         <f t="shared" ref="FM76" si="181">FM75+FM74</f>
-        <v>18111.030277500005</v>
+        <v>18321.030277500002</v>
       </c>
       <c r="FN76" s="51">
         <f t="shared" ref="FN76" si="182">FN75+FN74</f>
-        <v>22724.783625275009</v>
+        <v>23018.783625275009</v>
       </c>
       <c r="FO76" s="51">
         <f t="shared" ref="FO76" si="183">FO75+FO74</f>
-        <v>27138.017948527748</v>
+        <v>27490.817948527743</v>
       </c>
       <c r="FP76" s="51">
         <f>FP75+FP74</f>
-        <v>30357.271479088031</v>
+        <v>30745.351479088033</v>
       </c>
       <c r="FQ76" s="51">
         <f>FQ75+FQ74</f>
-        <v>30017.21091343927</v>
+        <v>30444.098913439273</v>
       </c>
       <c r="FR76" s="51">
         <f t="shared" ref="FR76:FU76" si="184">FR75+FR74</f>
-        <v>30299.325156807135</v>
+        <v>30726.213156807138</v>
       </c>
       <c r="FS76" s="51">
         <f t="shared" si="184"/>
-        <v>31123.752706043535</v>
+        <v>31554.909586043537</v>
       </c>
       <c r="FT76" s="51">
         <f t="shared" si="184"/>
-        <v>32211.951527936239</v>
+        <v>32651.64616793624</v>
       </c>
       <c r="FU76" s="51">
         <f t="shared" si="184"/>
-        <v>33531.993530412285</v>
+        <v>33984.537499212282</v>
       </c>
       <c r="FV76" s="51">
         <f>FV75+FV74</f>
-        <v>32876.644358446669</v>
+        <v>33346.434602446672</v>
       </c>
     </row>
     <row r="77" spans="1:178" x14ac:dyDescent="0.25">
@@ -39283,15 +39329,15 @@
       </c>
       <c r="DT77" s="51">
         <f t="shared" si="204"/>
-        <v>6482.3903000000037</v>
+        <v>6644.3903000000037</v>
       </c>
       <c r="DU77" s="51">
         <f t="shared" si="204"/>
-        <v>7046.096400000004</v>
+        <v>7208.096400000004</v>
       </c>
       <c r="DV77" s="51">
         <f t="shared" si="204"/>
-        <v>8161.7628100000029</v>
+        <v>8323.7628100000038</v>
       </c>
       <c r="DX77" s="51"/>
       <c r="DY77" s="51"/>
@@ -39416,47 +39462,47 @@
       </c>
       <c r="FL77" s="51">
         <f t="shared" ref="FL77" si="210">+FL73-FL76</f>
-        <v>21827.301640000012</v>
+        <v>22151.301640000012</v>
       </c>
       <c r="FM77" s="51">
         <f t="shared" ref="FM77" si="211">+FM73-FM76</f>
-        <v>39119.825399400012</v>
+        <v>39573.42539940001</v>
       </c>
       <c r="FN77" s="51">
         <f t="shared" ref="FN77" si="212">+FN73-FN76</f>
-        <v>49085.532630594025</v>
+        <v>49720.572630594019</v>
       </c>
       <c r="FO77" s="51">
         <f t="shared" ref="FO77" si="213">+FO73-FO76</f>
-        <v>58618.118768819942</v>
+        <v>59380.16676881993</v>
       </c>
       <c r="FP77" s="51">
         <f>+FP73-FP76</f>
-        <v>65571.706394830151</v>
+        <v>66409.959194830153</v>
       </c>
       <c r="FQ77" s="51">
         <f>+FQ73-FQ76</f>
-        <v>72041.306192254255</v>
+        <v>73065.837392254252</v>
       </c>
       <c r="FR77" s="51">
         <f t="shared" ref="FR77:FU77" si="214">+FR73-FR76</f>
-        <v>72718.380376337125</v>
+        <v>73742.911576337137</v>
       </c>
       <c r="FS77" s="51">
         <f t="shared" si="214"/>
-        <v>74697.006494504472</v>
+        <v>75731.783006504484</v>
       </c>
       <c r="FT77" s="51">
         <f t="shared" si="214"/>
-        <v>77308.683667046964</v>
+        <v>78363.950803046973</v>
       </c>
       <c r="FU77" s="51">
         <f t="shared" si="214"/>
-        <v>80476.784472989471</v>
+        <v>81562.889998109473</v>
       </c>
       <c r="FV77" s="51">
         <f>+FV73-FV76</f>
-        <v>78903.946460272011</v>
+        <v>80031.443045872002</v>
       </c>
     </row>
     <row r="78" spans="1:178" x14ac:dyDescent="0.25">
@@ -39865,43 +39911,43 @@
       </c>
       <c r="FM78" s="49">
         <f t="shared" si="218"/>
-        <v>265.44432582431995</v>
+        <v>270.62832582431997</v>
       </c>
       <c r="FN78" s="49">
         <f t="shared" si="218"/>
-        <v>895.60864142790922</v>
+        <v>908.13318542790921</v>
       </c>
       <c r="FO78" s="49">
         <f t="shared" si="218"/>
-        <v>1695.3069017802604</v>
+        <v>1718.1924784842599</v>
       </c>
       <c r="FP78" s="49">
         <f t="shared" si="218"/>
-        <v>2660.321712509864</v>
+        <v>2695.7662264411269</v>
       </c>
       <c r="FQ78" s="49">
         <f t="shared" si="218"/>
-        <v>3752.0341622273045</v>
+        <v>3801.4578331814673</v>
       </c>
       <c r="FR78" s="49">
         <f t="shared" ref="FR78:FU78" si="219">+FQ99*$FY$97</f>
-        <v>4964.7276078990089</v>
+        <v>5031.3345567884389</v>
       </c>
       <c r="FS78" s="49">
         <f t="shared" si="219"/>
-        <v>6207.657335646787</v>
+        <v>6291.7224949184483</v>
       </c>
       <c r="FT78" s="49">
         <f t="shared" si="219"/>
-        <v>7502.1319569292073</v>
+        <v>7604.0985829412148</v>
       </c>
       <c r="FU78" s="49">
         <f t="shared" si="219"/>
-        <v>8859.105006912825</v>
+        <v>8979.5873731170268</v>
       </c>
       <c r="FV78" s="49">
         <f>+FU99*$FY$97</f>
-        <v>10288.479238591262</v>
+        <v>10428.267011056651</v>
       </c>
     </row>
     <row r="79" spans="1:178" x14ac:dyDescent="0.25">
@@ -40278,15 +40324,15 @@
       </c>
       <c r="DT79" s="51">
         <f t="shared" si="234"/>
-        <v>6482.3903000000037</v>
+        <v>6644.3903000000037</v>
       </c>
       <c r="DU79" s="51">
         <f t="shared" si="234"/>
-        <v>7046.096400000004</v>
+        <v>7208.096400000004</v>
       </c>
       <c r="DV79" s="51">
         <f t="shared" si="234"/>
-        <v>8161.7628100000029</v>
+        <v>8323.7628100000038</v>
       </c>
       <c r="DX79" s="51"/>
       <c r="DY79" s="51"/>
@@ -40414,47 +40460,47 @@
       </c>
       <c r="FL79" s="51">
         <f t="shared" si="239"/>
-        <v>21744.828706520013</v>
+        <v>22068.828706520013</v>
       </c>
       <c r="FM79" s="51">
         <f t="shared" si="239"/>
-        <v>39385.269725224331</v>
+        <v>39844.05372522433</v>
       </c>
       <c r="FN79" s="51">
         <f t="shared" si="239"/>
-        <v>49981.141272021938</v>
+        <v>50628.705816021931</v>
       </c>
       <c r="FO79" s="51">
         <f t="shared" si="239"/>
-        <v>60313.425670600205</v>
+        <v>61098.359247304194</v>
       </c>
       <c r="FP79" s="51">
         <f t="shared" si="239"/>
-        <v>68232.028107340011</v>
+        <v>69105.725421271287</v>
       </c>
       <c r="FQ79" s="51">
         <f>FQ77+FQ78</f>
-        <v>75793.340354481566</v>
+        <v>76867.295225435722</v>
       </c>
       <c r="FR79" s="51">
         <f t="shared" ref="FR79:FU79" si="240">FR77+FR78</f>
-        <v>77683.107984236136</v>
+        <v>78774.246133125576</v>
       </c>
       <c r="FS79" s="51">
         <f t="shared" si="240"/>
-        <v>80904.663830151258</v>
+        <v>82023.505501422929</v>
       </c>
       <c r="FT79" s="51">
         <f t="shared" si="240"/>
-        <v>84810.815623976174</v>
+        <v>85968.049385988183</v>
       </c>
       <c r="FU79" s="51">
         <f t="shared" si="240"/>
-        <v>89335.889479902296</v>
+        <v>90542.477371226501</v>
       </c>
       <c r="FV79" s="51">
         <f>FV77+FV78</f>
-        <v>89192.42569886327</v>
+        <v>90459.710056928656</v>
       </c>
     </row>
     <row r="80" spans="1:178" x14ac:dyDescent="0.25">
@@ -40755,15 +40801,15 @@
       </c>
       <c r="DT80" s="51">
         <f>+DT79*0.2</f>
-        <v>1296.4780600000008</v>
+        <v>1328.8780600000009</v>
       </c>
       <c r="DU80" s="51">
         <f>+DU79*0.2</f>
-        <v>1409.2192800000009</v>
+        <v>1441.6192800000008</v>
       </c>
       <c r="DV80" s="51">
         <f>+DV79*0.2</f>
-        <v>1632.3525620000007</v>
+        <v>1664.7525620000008</v>
       </c>
       <c r="DX80" s="49"/>
       <c r="DY80" s="49"/>
@@ -40872,47 +40918,47 @@
       </c>
       <c r="FL80" s="51">
         <f t="shared" ref="FL80:FP80" si="245">FL79*0.2</f>
-        <v>4348.9657413040031</v>
+        <v>4413.7657413040024</v>
       </c>
       <c r="FM80" s="51">
         <f t="shared" si="245"/>
-        <v>7877.0539450448669</v>
+        <v>7968.8107450448661</v>
       </c>
       <c r="FN80" s="51">
         <f t="shared" si="245"/>
-        <v>9996.2282544043883</v>
+        <v>10125.741163204388</v>
       </c>
       <c r="FO80" s="51">
         <f t="shared" si="245"/>
-        <v>12062.685134120042</v>
+        <v>12219.671849460839</v>
       </c>
       <c r="FP80" s="51">
         <f t="shared" si="245"/>
-        <v>13646.405621468002</v>
+        <v>13821.145084254258</v>
       </c>
       <c r="FQ80" s="51">
         <f>FQ79*0.2</f>
-        <v>15158.668070896314</v>
+        <v>15373.459045087146</v>
       </c>
       <c r="FR80" s="51">
         <f t="shared" ref="FR80:FT80" si="246">FR79*0.2</f>
-        <v>15536.621596847228</v>
+        <v>15754.849226625116</v>
       </c>
       <c r="FS80" s="51">
         <f t="shared" si="246"/>
-        <v>16180.932766030252</v>
+        <v>16404.701100284587</v>
       </c>
       <c r="FT80" s="51">
         <f t="shared" si="246"/>
-        <v>16962.163124795235</v>
+        <v>17193.609877197636</v>
       </c>
       <c r="FU80" s="51">
         <f>FU79*0.2</f>
-        <v>17867.177895980461</v>
+        <v>18108.495474245301</v>
       </c>
       <c r="FV80" s="51">
         <f>FV79*0.2</f>
-        <v>17838.485139772656</v>
+        <v>18091.94201138573</v>
       </c>
     </row>
     <row r="81" spans="1:251" x14ac:dyDescent="0.25">
@@ -41289,15 +41335,15 @@
       </c>
       <c r="DT81" s="51">
         <f t="shared" si="265"/>
-        <v>5185.9122400000033</v>
+        <v>5315.5122400000027</v>
       </c>
       <c r="DU81" s="51">
         <f t="shared" si="265"/>
-        <v>5636.8771200000028</v>
+        <v>5766.4771200000032</v>
       </c>
       <c r="DV81" s="51">
         <f t="shared" si="265"/>
-        <v>6529.410248000002</v>
+        <v>6659.0102480000032</v>
       </c>
       <c r="DX81" s="51"/>
       <c r="DY81" s="51"/>
@@ -41425,339 +41471,339 @@
       </c>
       <c r="FL81" s="51">
         <f t="shared" ref="FL81:FO81" si="270">+FL79-FL80</f>
-        <v>17395.862965216009</v>
+        <v>17655.06296521601</v>
       </c>
       <c r="FM81" s="51">
         <f t="shared" si="270"/>
-        <v>31508.215780179464</v>
+        <v>31875.242980179464</v>
       </c>
       <c r="FN81" s="51">
         <f t="shared" si="270"/>
-        <v>39984.913017617553</v>
+        <v>40502.964652817544</v>
       </c>
       <c r="FO81" s="51">
         <f t="shared" si="270"/>
-        <v>48250.740536480167</v>
+        <v>48878.687397843358</v>
       </c>
       <c r="FP81" s="51">
         <f>+FP79-FP80</f>
-        <v>54585.622485872009</v>
+        <v>55284.580337017032</v>
       </c>
       <c r="FQ81" s="51">
         <f>+FQ79-FQ80</f>
-        <v>60634.672283585256</v>
+        <v>61493.836180348575</v>
       </c>
       <c r="FR81" s="51">
         <f t="shared" ref="FR81:FT81" si="271">+FR79-FR80</f>
-        <v>62146.486387388912</v>
+        <v>63019.396906500464</v>
       </c>
       <c r="FS81" s="51">
         <f t="shared" si="271"/>
-        <v>64723.731064121006</v>
+        <v>65618.804401138346</v>
       </c>
       <c r="FT81" s="51">
         <f t="shared" si="271"/>
-        <v>67848.652499180942</v>
+        <v>68774.439508790543</v>
       </c>
       <c r="FU81" s="51">
         <f>+FU79-FU80</f>
-        <v>71468.711583921831</v>
+        <v>72433.981896981204</v>
       </c>
       <c r="FV81" s="51">
         <f>+FV79-FV80</f>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="FW81" s="54">
         <f t="shared" ref="FW81:HB81" si="272">+FV81*(1+$FY$98)</f>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="FX81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="FY81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="FZ81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GA81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GB81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GC81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GD81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GE81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GF81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GG81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GH81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GI81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GJ81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GK81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GL81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GM81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GN81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GO81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GP81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GQ81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GR81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GS81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GT81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GU81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GV81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GW81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GX81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GY81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="GZ81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HA81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HB81" s="54">
         <f t="shared" si="272"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HC81" s="54">
         <f t="shared" ref="HC81:IH81" si="273">+HB81*(1+$FY$98)</f>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HD81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HE81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HF81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HG81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HH81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HI81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HJ81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HK81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HL81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HM81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HN81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HO81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HP81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HQ81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HR81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HS81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HT81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HU81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HV81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HW81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HX81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HY81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="HZ81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="IA81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="IB81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="IC81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="ID81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="IE81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="IF81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="IG81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="IH81" s="54">
         <f t="shared" si="273"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="II81" s="54">
         <f t="shared" ref="II81:IQ81" si="274">+IH81*(1+$FY$98)</f>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="IJ81" s="54">
         <f t="shared" si="274"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="IK81" s="54">
         <f t="shared" si="274"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="IL81" s="54">
         <f t="shared" si="274"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="IM81" s="54">
         <f t="shared" si="274"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="IN81" s="54">
         <f t="shared" si="274"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="IO81" s="54">
         <f t="shared" si="274"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="IP81" s="54">
         <f t="shared" si="274"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
       <c r="IQ81" s="54">
         <f t="shared" si="274"/>
-        <v>71353.94055909061</v>
+        <v>72367.768045542922</v>
       </c>
     </row>
     <row r="82" spans="1:251" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -42134,15 +42180,15 @@
       </c>
       <c r="DT82" s="59">
         <f t="shared" si="292"/>
-        <v>5.758285853875198</v>
+        <v>5.9021899178325592</v>
       </c>
       <c r="DU82" s="59">
         <f t="shared" si="292"/>
-        <v>6.2590241172551666</v>
+        <v>6.4029281812125287</v>
       </c>
       <c r="DV82" s="59">
         <f t="shared" si="292"/>
-        <v>7.2500668976238085</v>
+        <v>7.3939709615811715</v>
       </c>
       <c r="DX82" s="59"/>
       <c r="DY82" s="59"/>
@@ -42270,47 +42316,47 @@
       </c>
       <c r="FL82" s="59">
         <f t="shared" si="296"/>
-        <v>19.237167709719522</v>
+        <v>19.523803324194621</v>
       </c>
       <c r="FM82" s="59">
         <f t="shared" si="296"/>
-        <v>34.843274657275217</v>
+        <v>35.249150687371952</v>
       </c>
       <c r="FN82" s="59">
         <f t="shared" si="296"/>
-        <v>44.217207224298505</v>
+        <v>44.790093214982839</v>
       </c>
       <c r="FO82" s="59">
         <f t="shared" si="296"/>
-        <v>53.357950087008241</v>
+        <v>54.052363414417762</v>
       </c>
       <c r="FP82" s="59">
         <f t="shared" si="296"/>
-        <v>60.363362047622211</v>
+        <v>61.136302684794849</v>
       </c>
       <c r="FQ82" s="59">
         <f t="shared" si="296"/>
-        <v>67.05268730131823</v>
+        <v>68.002791357967808</v>
       </c>
       <c r="FR82" s="59">
         <f t="shared" ref="FR82:FU82" si="297">FR81/FR83</f>
-        <v>68.724522812953566</v>
+        <v>69.689828534509573</v>
       </c>
       <c r="FS82" s="59">
         <f t="shared" si="297"/>
-        <v>71.57456182363174</v>
+        <v>72.564376237043163</v>
       </c>
       <c r="FT82" s="59">
         <f t="shared" si="297"/>
-        <v>75.030247686767581</v>
+        <v>76.054026731414623</v>
       </c>
       <c r="FU82" s="59">
         <f t="shared" si="297"/>
-        <v>79.033480172071847</v>
+        <v>80.100921720367936</v>
       </c>
       <c r="FV82" s="59">
         <f>FV81/FV83</f>
-        <v>78.90656094666123</v>
+        <v>80.027699312984538</v>
       </c>
     </row>
     <row r="83" spans="1:251" x14ac:dyDescent="0.25">
@@ -43114,15 +43160,15 @@
       </c>
       <c r="DT85" s="61">
         <f t="shared" si="327"/>
-        <v>0.26966388562025045</v>
+        <v>0.28735877268263366</v>
       </c>
       <c r="DU85" s="61">
         <f t="shared" si="327"/>
-        <v>0.3343100916147983</v>
+        <v>0.35179383173648504</v>
       </c>
       <c r="DV85" s="61">
         <f t="shared" si="327"/>
-        <v>0.21876643803826523</v>
+        <v>0.23329328765123369</v>
       </c>
       <c r="DW85" s="61"/>
       <c r="DX85" s="61"/>
@@ -43260,47 +43306,47 @@
       </c>
       <c r="FL85" s="62">
         <f t="shared" si="336"/>
-        <v>0.3090084181864361</v>
+        <v>0.32229295005392466</v>
       </c>
       <c r="FM85" s="62">
         <f t="shared" si="336"/>
-        <v>0.2253374668022039</v>
+        <v>0.22709222923077732</v>
       </c>
       <c r="FN85" s="62">
         <f t="shared" si="336"/>
-        <v>0.25474825435562543</v>
+        <v>0.25641316435922845</v>
       </c>
       <c r="FO85" s="62">
         <f t="shared" si="336"/>
-        <v>0.19420357949389855</v>
+        <v>0.19427761240791042</v>
       </c>
       <c r="FP85" s="62">
         <f t="shared" si="336"/>
-        <v>0.11862522667153486</v>
+        <v>0.11838620213679696</v>
       </c>
       <c r="FQ85" s="62">
         <f t="shared" si="336"/>
-        <v>-1.1201947641540033E-2</v>
+        <v>-9.7983126279646005E-3</v>
       </c>
       <c r="FR85" s="62">
         <f t="shared" si="336"/>
-        <v>9.3984162679670025E-3</v>
+        <v>9.266631414186044E-3</v>
       </c>
       <c r="FS85" s="62">
         <f t="shared" si="336"/>
-        <v>2.7209436017791244E-2</v>
+        <v>2.697034043887081E-2</v>
       </c>
       <c r="FT85" s="62">
         <f t="shared" si="336"/>
-        <v>3.4963612266505351E-2</v>
+        <v>3.4756448244674498E-2</v>
       </c>
       <c r="FU85" s="62">
         <f t="shared" si="336"/>
-        <v>4.0979882927342226E-2</v>
+        <v>4.082156606808196E-2</v>
       </c>
       <c r="FV85" s="62">
         <f t="shared" si="336"/>
-        <v>-1.9543996731695601E-2</v>
+        <v>-1.8776271319873028E-2</v>
       </c>
     </row>
     <row r="86" spans="1:251" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -43995,15 +44041,15 @@
       </c>
       <c r="DT88" s="66">
         <f t="shared" si="355"/>
-        <v>0.4047495793969198</v>
+        <v>0.43710366248220534</v>
       </c>
       <c r="DU88" s="66">
         <f t="shared" si="355"/>
-        <v>0.55549844186718933</v>
+        <v>0.5876248915732325</v>
       </c>
       <c r="DV88" s="66">
         <f t="shared" si="355"/>
-        <v>0.51321492308999761</v>
+        <v>0.54154273250049578</v>
       </c>
       <c r="DW88" s="66"/>
       <c r="DX88" s="66"/>
@@ -44049,7 +44095,7 @@
       </c>
       <c r="FL88" s="96">
         <f t="shared" ref="FL88:FV88" si="356">FL6/FK6-1</f>
-        <v>0.59159799308498195</v>
+        <v>0.61759430160917161</v>
       </c>
       <c r="FM88" s="96">
         <f t="shared" si="356"/>
@@ -44073,7 +44119,7 @@
       </c>
       <c r="FR88" s="96">
         <f t="shared" si="356"/>
-        <v>-9.9999999999999867E-2</v>
+        <v>-0.10000000000000009</v>
       </c>
       <c r="FS88" s="96">
         <f t="shared" si="356"/>
@@ -44081,11 +44127,11 @@
       </c>
       <c r="FT88" s="96">
         <f t="shared" si="356"/>
-        <v>-0.10000000000000009</v>
+        <v>-9.9999999999999978E-2</v>
       </c>
       <c r="FU88" s="96">
         <f t="shared" si="356"/>
-        <v>-9.9999999999999978E-2</v>
+        <v>-0.10000000000000009</v>
       </c>
       <c r="FV88" s="96">
         <f t="shared" si="356"/>
@@ -45403,15 +45449,15 @@
       </c>
       <c r="DT92" s="66">
         <f t="shared" ref="DT92" si="394">+DT82/DP82-1</f>
-        <v>0.4065149829267809</v>
+        <v>0.44166489163162059</v>
       </c>
       <c r="DU92" s="66">
         <f t="shared" ref="DU92" si="395">+DU82/DQ82-1</f>
-        <v>0.40987252221790138</v>
+        <v>0.44228754120618841</v>
       </c>
       <c r="DV92" s="66">
         <f t="shared" ref="DV92" si="396">+DV82/DR82-1</f>
-        <v>0.24058759573100352</v>
+        <v>0.26521158875640527</v>
       </c>
       <c r="DW92" s="66"/>
       <c r="DX92" s="66"/>
@@ -45925,7 +45971,7 @@
       </c>
       <c r="FN94" s="64">
         <f t="shared" si="420"/>
-        <v>0.79000000000000015</v>
+        <v>0.79</v>
       </c>
       <c r="FO94" s="64">
         <f t="shared" si="420"/>
@@ -46295,15 +46341,15 @@
       </c>
       <c r="DT95" s="64">
         <f t="shared" si="440"/>
-        <v>0.16229461703075054</v>
+        <v>0.16006385977789275</v>
       </c>
       <c r="DU95" s="64">
         <f t="shared" si="440"/>
-        <v>0.19704011677577263</v>
+        <v>0.19449165256889794</v>
       </c>
       <c r="DV95" s="64">
         <f t="shared" si="440"/>
-        <v>0.13878636796171706</v>
+        <v>0.13715161593971456</v>
       </c>
       <c r="EN95" s="64">
         <f t="shared" ref="EN95:FG95" si="441">EN74/EN71</f>
@@ -46781,15 +46827,15 @@
       </c>
       <c r="DT96" s="64">
         <f t="shared" si="463"/>
-        <v>0.1959906986661909</v>
+        <v>0.19329678508765594</v>
       </c>
       <c r="DU96" s="64">
         <f t="shared" si="463"/>
-        <v>0.15132761684128868</v>
+        <v>0.14937038589084961</v>
       </c>
       <c r="DV96" s="64">
         <f t="shared" si="463"/>
-        <v>0.18480090677309177</v>
+        <v>0.18262415367801443</v>
       </c>
       <c r="FE96" s="53"/>
       <c r="FF96" s="64">
@@ -47144,7 +47190,7 @@
       </c>
       <c r="DT97" s="64">
         <f t="shared" si="487"/>
-        <v>0.2</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="DU97" s="64">
         <f t="shared" si="487"/>
@@ -47181,7 +47227,7 @@
       </c>
       <c r="FL97" s="79">
         <f t="shared" si="491"/>
-        <v>0.20000000000000004</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="FM97" s="79">
         <f t="shared" si="491"/>
@@ -47189,7 +47235,7 @@
       </c>
       <c r="FN97" s="79">
         <f t="shared" si="491"/>
-        <v>0.2</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="FO97" s="79">
         <f t="shared" si="491"/>
@@ -47213,7 +47259,7 @@
       </c>
       <c r="FT97" s="79">
         <f t="shared" si="492"/>
-        <v>0.2</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="FU97" s="79">
         <f t="shared" si="492"/>
@@ -47221,7 +47267,7 @@
       </c>
       <c r="FV97" s="79">
         <f t="shared" si="492"/>
-        <v>0.2</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="FX97" s="52" t="s">
         <v>268</v>
@@ -47454,47 +47500,47 @@
       </c>
       <c r="FL99" s="49">
         <f t="shared" si="501"/>
-        <v>13272.216291215997</v>
+        <v>13531.416291215997</v>
       </c>
       <c r="FM99" s="49">
         <f t="shared" si="501"/>
-        <v>44780.432071395458</v>
+        <v>45406.65927139546</v>
       </c>
       <c r="FN99" s="49">
         <f t="shared" si="501"/>
-        <v>84765.345089013019</v>
+        <v>85909.623924212996</v>
       </c>
       <c r="FO99" s="49">
         <f t="shared" si="501"/>
-        <v>133016.0856254932</v>
+        <v>134788.31132205634</v>
       </c>
       <c r="FP99" s="49">
         <f t="shared" si="501"/>
-        <v>187601.70811136521</v>
+        <v>190072.89165907336</v>
       </c>
       <c r="FQ99" s="49">
         <f t="shared" si="501"/>
-        <v>248236.38039495045</v>
+        <v>251566.72783942195</v>
       </c>
       <c r="FR99" s="49">
         <f t="shared" ref="FR99" si="502">+FQ99+FR81</f>
-        <v>310382.86678233935</v>
+        <v>314586.1247459224</v>
       </c>
       <c r="FS99" s="49">
         <f t="shared" ref="FS99" si="503">+FR99+FS81</f>
-        <v>375106.59784646035</v>
+        <v>380204.92914706073</v>
       </c>
       <c r="FT99" s="49">
         <f t="shared" ref="FT99" si="504">+FS99+FT81</f>
-        <v>442955.25034564128</v>
+        <v>448979.36865585129</v>
       </c>
       <c r="FU99" s="49">
         <f t="shared" ref="FU99" si="505">+FT99+FU81</f>
-        <v>514423.96192956308</v>
+        <v>521413.35055283247</v>
       </c>
       <c r="FV99" s="49">
         <f t="shared" ref="FV99" si="506">+FU99+FV81</f>
-        <v>585777.90248865366</v>
+        <v>593781.11859837535</v>
       </c>
       <c r="FX99" s="47" t="s">
         <v>241</v>
@@ -47510,7 +47556,7 @@
       </c>
       <c r="FY100" s="51">
         <f>NPV(FY99,FL81:IS81)+Main!J5-Main!J6</f>
-        <v>824798.91685000737</v>
+        <v>836706.60364292131</v>
       </c>
     </row>
     <row r="101" spans="1:181" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -47783,7 +47829,7 @@
       </c>
       <c r="FY101" s="65">
         <f>+FY100/Main!J3</f>
-        <v>915.83268582057224</v>
+        <v>929.05463429149597</v>
       </c>
     </row>
     <row r="102" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
@@ -57760,26 +57806,52 @@
       <c r="DC157" s="51"/>
       <c r="DD157" s="51"/>
       <c r="DE157" s="51"/>
-      <c r="DF157" s="51"/>
-      <c r="DG157" s="51"/>
-      <c r="DH157" s="51"/>
-      <c r="DI157" s="51"/>
-      <c r="DJ157" s="51"/>
-      <c r="DK157" s="51"/>
-      <c r="DL157" s="51"/>
+      <c r="DF157" s="51">
+        <f>16811-DE157-DD157-DC157</f>
+        <v>16811</v>
+      </c>
+      <c r="DG157" s="51">
+        <v>5174.6000000000004</v>
+      </c>
+      <c r="DH157" s="51">
+        <v>3934.8</v>
+      </c>
+      <c r="DI157" s="51">
+        <v>4422.1000000000004</v>
+      </c>
+      <c r="DJ157" s="51">
+        <f>18190-DI157-DH157-DG157</f>
+        <v>4658.4999999999982</v>
+      </c>
+      <c r="DK157" s="51">
+        <v>4436.2</v>
+      </c>
+      <c r="DL157" s="51">
+        <v>5531.4</v>
+      </c>
       <c r="DM157" s="51">
         <v>5368.1</v>
       </c>
-      <c r="DN157" s="51"/>
-      <c r="DO157" s="51"/>
+      <c r="DN157" s="51">
+        <f>21791-DM157-DL157-DK157</f>
+        <v>6455.300000000002</v>
+      </c>
+      <c r="DO157" s="51">
+        <v>5694.4</v>
+      </c>
       <c r="DP157" s="51">
         <v>7835</v>
       </c>
       <c r="DQ157" s="51">
         <v>7813.6</v>
       </c>
-      <c r="DR157" s="51"/>
-      <c r="DS157" s="51"/>
+      <c r="DR157" s="51">
+        <f>30375.2-DQ157-DP157-DO157</f>
+        <v>9032.1999999999989</v>
+      </c>
+      <c r="DS157" s="51">
+        <v>8489.4</v>
+      </c>
       <c r="DT157" s="51"/>
       <c r="DU157" s="51"/>
       <c r="DV157" s="51"/>
@@ -57912,26 +57984,52 @@
       <c r="DC158" s="51"/>
       <c r="DD158" s="51"/>
       <c r="DE158" s="51"/>
-      <c r="DF158" s="51"/>
-      <c r="DG158" s="51"/>
-      <c r="DH158" s="51"/>
-      <c r="DI158" s="51"/>
-      <c r="DJ158" s="51"/>
-      <c r="DK158" s="51"/>
-      <c r="DL158" s="51"/>
+      <c r="DF158" s="51">
+        <f>4776.8-DE158-DD158-DC158</f>
+        <v>4776.8</v>
+      </c>
+      <c r="DG158" s="51">
+        <v>1067.3</v>
+      </c>
+      <c r="DH158" s="51">
+        <v>1101.0999999999999</v>
+      </c>
+      <c r="DI158" s="51">
+        <v>1056.4000000000001</v>
+      </c>
+      <c r="DJ158" s="51">
+        <f>4299.2-DI158-DH158-DG158</f>
+        <v>1074.3999999999999</v>
+      </c>
+      <c r="DK158" s="51">
+        <v>1090.9000000000001</v>
+      </c>
+      <c r="DL158" s="51">
+        <v>1177.5999999999999</v>
+      </c>
       <c r="DM158" s="51">
         <v>2568.6</v>
       </c>
-      <c r="DN158" s="51"/>
-      <c r="DO158" s="51"/>
+      <c r="DN158" s="51">
+        <f>6174.7-DM158-DL158-DK158</f>
+        <v>1337.6</v>
+      </c>
+      <c r="DO158" s="51">
+        <v>1440.7</v>
+      </c>
       <c r="DP158" s="51">
         <v>1404</v>
       </c>
       <c r="DQ158" s="51">
         <v>1628.3</v>
       </c>
-      <c r="DR158" s="51"/>
-      <c r="DS158" s="51"/>
+      <c r="DR158" s="51">
+        <f>6920.7-DQ158-DP158-DO158</f>
+        <v>2447.6999999999998</v>
+      </c>
+      <c r="DS158" s="51">
+        <v>2388.6999999999998</v>
+      </c>
       <c r="DT158" s="51"/>
       <c r="DU158" s="51"/>
       <c r="DV158" s="51"/>
@@ -58064,26 +58162,52 @@
       <c r="DC159" s="51"/>
       <c r="DD159" s="51"/>
       <c r="DE159" s="51"/>
-      <c r="DF159" s="51"/>
-      <c r="DG159" s="51"/>
-      <c r="DH159" s="51"/>
-      <c r="DI159" s="51"/>
-      <c r="DJ159" s="51"/>
-      <c r="DK159" s="51"/>
-      <c r="DL159" s="51"/>
+      <c r="DF159" s="51">
+        <f>2367-DE159-DD159-DC159</f>
+        <v>2367</v>
+      </c>
+      <c r="DG159" s="51">
+        <v>410.2</v>
+      </c>
+      <c r="DH159" s="51">
+        <v>454.4</v>
+      </c>
+      <c r="DI159" s="51">
+        <v>487.7</v>
+      </c>
+      <c r="DJ159" s="51">
+        <f>1747.3-DI159-DH159-DG159</f>
+        <v>394.99999999999994</v>
+      </c>
+      <c r="DK159" s="51">
+        <v>387.2</v>
+      </c>
+      <c r="DL159" s="51">
+        <v>455.6</v>
+      </c>
       <c r="DM159" s="51">
         <v>390.8</v>
       </c>
-      <c r="DN159" s="51"/>
-      <c r="DO159" s="51"/>
+      <c r="DN159" s="51">
+        <f>1672.6-DM159-DL159-DK159</f>
+        <v>438.99999999999994</v>
+      </c>
+      <c r="DO159" s="51">
+        <v>363.9</v>
+      </c>
       <c r="DP159" s="51">
         <v>463</v>
       </c>
       <c r="DQ159" s="51">
         <v>429.1</v>
       </c>
-      <c r="DR159" s="51"/>
-      <c r="DS159" s="51"/>
+      <c r="DR159" s="51">
+        <f>1814.9-DQ159-DP159-DO159</f>
+        <v>558.9000000000002</v>
+      </c>
+      <c r="DS159" s="51">
+        <v>402.2</v>
+      </c>
       <c r="DT159" s="51"/>
       <c r="DU159" s="51"/>
       <c r="DV159" s="51"/>
@@ -58216,26 +58340,52 @@
       <c r="DC160" s="51"/>
       <c r="DD160" s="51"/>
       <c r="DE160" s="51"/>
-      <c r="DF160" s="51"/>
-      <c r="DG160" s="51"/>
-      <c r="DH160" s="51"/>
-      <c r="DI160" s="51"/>
-      <c r="DJ160" s="51"/>
-      <c r="DK160" s="51"/>
-      <c r="DL160" s="51"/>
+      <c r="DF160" s="51">
+        <f>1661.4-DE160-DD160-DC160</f>
+        <v>1661.4</v>
+      </c>
+      <c r="DG160" s="51">
+        <v>406.5</v>
+      </c>
+      <c r="DH160" s="51">
+        <v>352.1</v>
+      </c>
+      <c r="DI160" s="51">
+        <v>343.4</v>
+      </c>
+      <c r="DJ160" s="51">
+        <f>1452.8-DI160-DH160-DG160</f>
+        <v>350.80000000000007</v>
+      </c>
+      <c r="DK160" s="51">
+        <v>372.7</v>
+      </c>
+      <c r="DL160" s="51">
+        <v>399</v>
+      </c>
       <c r="DM160" s="51">
         <v>390.8</v>
       </c>
-      <c r="DN160" s="51"/>
-      <c r="DO160" s="51"/>
+      <c r="DN160" s="51">
+        <f>1539.7-DM160-DL160-DK160</f>
+        <v>377.2000000000001</v>
+      </c>
+      <c r="DO160" s="51">
+        <v>376.2</v>
+      </c>
       <c r="DP160" s="51">
         <v>395</v>
       </c>
       <c r="DQ160" s="51">
         <v>459.9</v>
       </c>
-      <c r="DR160" s="51"/>
-      <c r="DS160" s="51"/>
+      <c r="DR160" s="51">
+        <f>1660.4-DQ160-DP160-DO160</f>
+        <v>429.3</v>
+      </c>
+      <c r="DS160" s="51">
+        <v>450.8</v>
+      </c>
       <c r="DT160" s="51"/>
       <c r="DU160" s="51"/>
       <c r="DV160" s="51"/>
@@ -58368,26 +58518,52 @@
       <c r="DC161" s="51"/>
       <c r="DD161" s="51"/>
       <c r="DE161" s="51"/>
-      <c r="DF161" s="51"/>
-      <c r="DG161" s="51"/>
-      <c r="DH161" s="51"/>
-      <c r="DI161" s="51"/>
-      <c r="DJ161" s="51"/>
-      <c r="DK161" s="51"/>
-      <c r="DL161" s="51"/>
+      <c r="DF161" s="51">
+        <f>2702.2-DE161-DD161-DC161</f>
+        <v>2702.2</v>
+      </c>
+      <c r="DG161" s="51">
+        <v>751.5</v>
+      </c>
+      <c r="DH161" s="51">
+        <v>645.70000000000005</v>
+      </c>
+      <c r="DI161" s="51">
+        <v>632</v>
+      </c>
+      <c r="DJ161" s="51">
+        <f>2852-DI161-DH161-DG161</f>
+        <v>822.8</v>
+      </c>
+      <c r="DK161" s="51">
+        <v>673.1</v>
+      </c>
+      <c r="DL161" s="51">
+        <v>748.5</v>
+      </c>
       <c r="DM161" s="51">
         <v>780.3</v>
       </c>
-      <c r="DN161" s="51"/>
-      <c r="DO161" s="51"/>
+      <c r="DN161" s="51">
+        <f>2946.2-DM161-DL161-DK161</f>
+        <v>744.29999999999961</v>
+      </c>
+      <c r="DO161" s="51">
+        <v>892.9</v>
+      </c>
       <c r="DP161" s="51">
         <v>1206</v>
       </c>
       <c r="DQ161" s="51">
         <v>1108.2</v>
       </c>
-      <c r="DR161" s="51"/>
-      <c r="DS161" s="51"/>
+      <c r="DR161" s="51">
+        <f>4271.4-DQ161-DP161-DO161</f>
+        <v>1064.2999999999997</v>
+      </c>
+      <c r="DS161" s="51">
+        <v>997.4</v>
+      </c>
       <c r="DT161" s="51"/>
       <c r="DU161" s="51"/>
       <c r="DV161" s="51"/>
@@ -58424,10 +58600,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01F29DC-F561-0C42-9377-8753A3B4D074}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -58530,88 +58706,549 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
+      <c r="B14" s="38" t="s">
+        <v>164</v>
+      </c>
       <c r="C14" s="38"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="C16" s="20" t="s">
+    <row r="19" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C19" s="20" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="38" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="38" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="19" spans="3:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C19" s="20" t="s">
+    <row r="22" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C22" s="20" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="38" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="38" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C22" s="20" t="s">
+    <row r="25" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C25" s="20" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="38" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="38" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="38" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="38" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="26" spans="3:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C26" s="20" t="s">
+    <row r="29" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C29" s="20" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="38" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="38" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="29" spans="3:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C29" s="20" t="s">
+    <row r="32" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C32" s="20" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="38" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="38" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="38" t="s">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="38" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="38" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="38" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="38" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="38" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="35" spans="3:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C35" s="20" t="s">
+    <row r="38" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="C38" s="20" t="s">
         <v>1090</v>
       </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="118" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="119" t="s">
+        <v>541</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F43" s="48" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G43" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="H43" s="48" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I43" s="48" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B44" s="132">
+        <v>45809</v>
+      </c>
+      <c r="C44" s="47">
+        <v>4002</v>
+      </c>
+      <c r="D44" s="47">
+        <v>5829</v>
+      </c>
+      <c r="E44">
+        <f>SUM(D44:D46)</f>
+        <v>17010</v>
+      </c>
+      <c r="F44" s="134">
+        <f>E44/E47-1</f>
+        <v>0.2331448455850369</v>
+      </c>
+      <c r="G44" s="47">
+        <f>4442+2612</f>
+        <v>7054</v>
+      </c>
+      <c r="H44" s="134">
+        <f>G44/G47-1</f>
+        <v>0.14624634384140389</v>
+      </c>
+      <c r="I44" s="63">
+        <f>+G44/E44</f>
+        <v>0.41469723691945914</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B45" s="132">
+        <v>45778</v>
+      </c>
+      <c r="C45" s="47">
+        <v>3959</v>
+      </c>
+      <c r="D45" s="47">
+        <v>5826</v>
+      </c>
+      <c r="F45" s="135"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+    </row>
+    <row r="46" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B46" s="132">
+        <v>45748</v>
+      </c>
+      <c r="C46" s="47">
+        <v>3641</v>
+      </c>
+      <c r="D46" s="47">
+        <v>5355</v>
+      </c>
+      <c r="F46" s="135"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+    </row>
+    <row r="47" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B47" s="132">
+        <v>45717</v>
+      </c>
+      <c r="C47" s="47">
+        <v>3440</v>
+      </c>
+      <c r="D47" s="47">
+        <v>5035</v>
+      </c>
+      <c r="E47">
+        <f>SUM(D47:D49)</f>
+        <v>13794</v>
+      </c>
+      <c r="F47" s="134">
+        <f>E47/E50-1</f>
+        <v>0.11674222797927469</v>
+      </c>
+      <c r="G47" s="47">
+        <f>3842+2312</f>
+        <v>6154</v>
+      </c>
+      <c r="H47" s="134">
+        <f>G47/G50-1</f>
+        <v>0.13187419532830602</v>
+      </c>
+      <c r="I47" s="63">
+        <f>+G47/E47</f>
+        <v>0.44613600115992458</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B48" s="132">
+        <v>45689</v>
+      </c>
+      <c r="C48" s="47">
+        <v>2960</v>
+      </c>
+      <c r="D48" s="47">
+        <v>4345</v>
+      </c>
+      <c r="F48" s="135"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+    </row>
+    <row r="49" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B49" s="132">
+        <v>45658</v>
+      </c>
+      <c r="C49" s="47">
+        <v>3000</v>
+      </c>
+      <c r="D49" s="47">
+        <v>4414</v>
+      </c>
+      <c r="F49" s="121"/>
+    </row>
+    <row r="50" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B50" s="132">
+        <v>45627</v>
+      </c>
+      <c r="C50" s="47">
+        <v>2916</v>
+      </c>
+      <c r="D50" s="47">
+        <v>4260</v>
+      </c>
+      <c r="E50">
+        <f>SUM(D50:D52)</f>
+        <v>12352</v>
+      </c>
+      <c r="F50" s="133">
+        <f>E50/E53-1</f>
+        <v>0.17862595419847338</v>
+      </c>
+      <c r="G50">
+        <f>3530+1907</f>
+        <v>5437</v>
+      </c>
+      <c r="H50" s="133">
+        <f>G50/G53-1</f>
+        <v>0.24388011896591166</v>
+      </c>
+      <c r="I50" s="77">
+        <f>+G50/E50</f>
+        <v>0.44017163212435234</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B51" s="132">
+        <v>45597</v>
+      </c>
+      <c r="C51" s="47">
+        <v>2735</v>
+      </c>
+      <c r="D51" s="47">
+        <v>4048</v>
+      </c>
+      <c r="F51" s="121"/>
+    </row>
+    <row r="52" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B52" s="132">
+        <v>45566</v>
+      </c>
+      <c r="C52" s="47">
+        <v>2745</v>
+      </c>
+      <c r="D52" s="47">
+        <v>4044</v>
+      </c>
+      <c r="F52" s="121"/>
+    </row>
+    <row r="53" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B53" s="132">
+        <v>45536</v>
+      </c>
+      <c r="D53" s="47">
+        <v>3537</v>
+      </c>
+      <c r="E53">
+        <f>SUM(D53:D55)</f>
+        <v>10480</v>
+      </c>
+      <c r="F53" s="133">
+        <f>E53/E56-1</f>
+        <v>0.23657817109144541</v>
+      </c>
+      <c r="G53">
+        <f>3113+1258</f>
+        <v>4371</v>
+      </c>
+      <c r="H53" s="133">
+        <f>G53/G56-1</f>
+        <v>8.5371481310567709E-3</v>
+      </c>
+      <c r="I53" s="77">
+        <f>+G53/E53</f>
+        <v>0.41708015267175574</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B54" s="132">
+        <v>45505</v>
+      </c>
+      <c r="D54" s="47">
+        <v>3572</v>
+      </c>
+      <c r="F54" s="121"/>
+    </row>
+    <row r="55" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B55" s="132">
+        <v>45474</v>
+      </c>
+      <c r="D55" s="47">
+        <v>3371</v>
+      </c>
+      <c r="F55" s="121"/>
+    </row>
+    <row r="56" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B56" s="132">
+        <v>45444</v>
+      </c>
+      <c r="D56" s="47">
+        <v>3043</v>
+      </c>
+      <c r="E56">
+        <f>SUM(D56:D58)</f>
+        <v>8475</v>
+      </c>
+      <c r="F56" s="133">
+        <f>E56/E59-1</f>
+        <v>0.26624831913939939</v>
+      </c>
+      <c r="G56">
+        <f>3091+1243</f>
+        <v>4334</v>
+      </c>
+      <c r="H56" s="133">
+        <f>G56/G59-1</f>
+        <v>0.8648881239242685</v>
+      </c>
+      <c r="I56" s="77">
+        <f>+G56/E56</f>
+        <v>0.51138643067846612</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="132">
+        <v>45413</v>
+      </c>
+      <c r="D57" s="47">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="132">
+        <v>45383</v>
+      </c>
+      <c r="D58" s="47">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="132">
+        <v>45352</v>
+      </c>
+      <c r="D59" s="47">
+        <v>2246</v>
+      </c>
+      <c r="E59">
+        <f>SUM(D59:D61)</f>
+        <v>6693</v>
+      </c>
+      <c r="G59">
+        <f>1807+517</f>
+        <v>2324</v>
+      </c>
+      <c r="I59" s="77">
+        <f>+G59/E59</f>
+        <v>0.34722844763185418</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="132">
+        <v>45323</v>
+      </c>
+      <c r="D60" s="47">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="132">
+        <v>45292</v>
+      </c>
+      <c r="D61" s="47">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="118"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="119"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="F64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+    </row>
+    <row r="65" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B65" s="132"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="F65" s="133"/>
+      <c r="H65" s="133"/>
+      <c r="I65" s="77"/>
+    </row>
+    <row r="66" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B66" s="132"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="F66" s="121"/>
+    </row>
+    <row r="67" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B67" s="132"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="F67" s="121"/>
+    </row>
+    <row r="68" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B68" s="132"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="F68" s="133"/>
+      <c r="H68" s="133"/>
+      <c r="I68" s="77"/>
+    </row>
+    <row r="69" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B69" s="132"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="F69" s="121"/>
+    </row>
+    <row r="70" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B70" s="132"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="F70" s="121"/>
+    </row>
+    <row r="71" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B71" s="132"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="F71" s="133"/>
+      <c r="H71" s="133"/>
+      <c r="I71" s="77"/>
+    </row>
+    <row r="72" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B72" s="132"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
+      <c r="F72" s="121"/>
+    </row>
+    <row r="73" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B73" s="132"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="F73" s="121"/>
+    </row>
+    <row r="74" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B74" s="132"/>
+      <c r="D74" s="47"/>
+      <c r="F74" s="133"/>
+      <c r="H74" s="133"/>
+      <c r="I74" s="77"/>
+    </row>
+    <row r="75" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B75" s="132"/>
+      <c r="D75" s="47"/>
+      <c r="F75" s="121"/>
+    </row>
+    <row r="76" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B76" s="132"/>
+      <c r="D76" s="47"/>
+      <c r="F76" s="121"/>
+    </row>
+    <row r="77" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B77" s="132"/>
+      <c r="D77" s="47"/>
+      <c r="F77" s="133"/>
+      <c r="H77" s="133"/>
+      <c r="I77" s="77"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="132"/>
+      <c r="D78" s="47"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="132"/>
+      <c r="D79" s="47"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="132"/>
+      <c r="D80" s="47"/>
+      <c r="I80" s="77"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="132"/>
+      <c r="D81" s="47"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="132"/>
+      <c r="D82" s="47"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -62338,9 +62975,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62458,25 +63098,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5830DB33-9879-4F08-8048-D3D7A603A8F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -62498,9 +63128,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5830DB33-9879-4F08-8048-D3D7A603A8F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C936578-EC86-45C2-8A93-0F3E11372075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D45B9A9-7FE6-45E3-AE9F-D9AF641ADE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38880" yWindow="2900" windowWidth="24340" windowHeight="15680" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="530" yWindow="2450" windowWidth="22150" windowHeight="16490" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="27" r:id="rId1"/>
@@ -14464,7 +14464,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -16223,11 +16223,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:IU161"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="DP35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="DP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DU83" sqref="DU83"/>
+      <selection pane="bottomRight" activeCell="DU5" sqref="DU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -64107,6 +64107,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -64220,33 +64235,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -64267,9 +64259,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>